--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T14:29:58+00:00</t>
+    <t>2025-01-29T14:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T14:31:02+00:00</t>
+    <t>2025-01-29T14:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T14:40:55+00:00</t>
+    <t>2025-01-29T14:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T14:59:16+00:00</t>
+    <t>2025-01-29T15:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T15:08:49+00:00</t>
+    <t>2025-01-29T15:16:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T15:16:51+00:00</t>
+    <t>2025-01-29T15:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T15:29:32+00:00</t>
+    <t>2025-01-29T15:38:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T15:38:31+00:00</t>
+    <t>2025-01-29T15:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T15:48:10+00:00</t>
+    <t>2025-01-29T16:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/test-change-image-to-mermaidflowshart/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T16:02:55+00:00</t>
+    <t>2025-01-29T16:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
